--- a/data/trans_bre/BARTHEL_R2-Clase-trans_bre.xlsx
+++ b/data/trans_bre/BARTHEL_R2-Clase-trans_bre.xlsx
@@ -660,22 +660,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-7.848265539232613</v>
+        <v>-7.138503309040868</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-13.92866247443546</v>
+        <v>-14.05214979055592</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-6.747041732151848</v>
+        <v>-5.809102089144813</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.470120877919682</v>
+        <v>-2.641451205773008</v>
       </c>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="inlineStr"/>
       <c r="I5" s="6" t="inlineStr"/>
       <c r="J5" s="6" t="n">
-        <v>-0.4684074750576595</v>
+        <v>-0.4275187806861536</v>
       </c>
     </row>
     <row r="6">
@@ -686,22 +686,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>18.23232087053313</v>
+        <v>16.06156898212699</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>17.30597619960614</v>
+        <v>17.495966160182</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15.69034025815892</v>
+        <v>17.83997942760536</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.422541515095224</v>
+        <v>8.670219916683164</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="inlineStr"/>
       <c r="I6" s="6" t="inlineStr"/>
       <c r="J6" s="6" t="n">
-        <v>2.681206225448414</v>
+        <v>2.707457469768058</v>
       </c>
     </row>
     <row r="7">
@@ -748,26 +748,24 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.739183411398689</v>
+        <v>2.330628779470407</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-9.341522405979518</v>
+        <v>-7.722614535220313</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-9.203756820889113</v>
+        <v>-7.783835304807574</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.873730773020496</v>
+        <v>-1.828770416678683</v>
       </c>
       <c r="G8" s="6" t="inlineStr"/>
-      <c r="H8" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="n">
-        <v>-0.6091394246111463</v>
+        <v>-0.6025989056916315</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2605583111865223</v>
+        <v>-0.278664867623282</v>
       </c>
     </row>
     <row r="9">
@@ -778,26 +776,24 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>45.2910054764473</v>
+        <v>46.06956780356198</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>30.90403212658311</v>
+        <v>35.84530142748032</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>44.57028261070469</v>
+        <v>45.54270455402828</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>14.37536297297342</v>
+        <v>12.99397076420446</v>
       </c>
       <c r="G9" s="6" t="inlineStr"/>
-      <c r="H9" s="6" t="n">
-        <v>8.106907469970745</v>
-      </c>
+      <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="n">
-        <v>5.909022390418366</v>
+        <v>6.468597129635896</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>3.834195966689529</v>
+        <v>3.177319480105451</v>
       </c>
     </row>
     <row r="10">
@@ -821,7 +817,7 @@
         <v>6.38127834382511</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8.080535741859741</v>
+        <v>8.080535741859737</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>1.161401981169062</v>
@@ -833,7 +829,7 @@
         <v>0.68254136502647</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.6373894175099363</v>
+        <v>0.6373894175099361</v>
       </c>
     </row>
     <row r="11">
@@ -844,28 +840,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.707898664081337</v>
+        <v>-3.024671646549912</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7493820736610847</v>
+        <v>1.542145072468249</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.390336642859894</v>
+        <v>-4.019250471797408</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.034901791985378</v>
+        <v>-1.297868271011613</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.5035286902265222</v>
+        <v>-0.4578045869023481</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1156695546354627</v>
+        <v>-0.03833127979556782</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.4563960725912682</v>
+        <v>-0.4164314917590972</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.09026759903066242</v>
+        <v>-0.1141183664460774</v>
       </c>
     </row>
     <row r="12">
@@ -876,28 +872,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>32.3111059059755</v>
+        <v>31.21608754980001</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>26.17192162563711</v>
+        <v>27.08743758728927</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>20.25723665334439</v>
+        <v>20.65728959418748</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>18.84417950022878</v>
+        <v>17.81031727952571</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>7.645953506247919</v>
+        <v>6.921462823409668</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>4.908796628386405</v>
+        <v>4.824054269389672</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>3.241641634214477</v>
+        <v>3.308959708984384</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>2.023008828271139</v>
+        <v>1.810895818613147</v>
       </c>
     </row>
     <row r="13">
@@ -921,7 +917,7 @@
         <v>10.65625094375017</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-0.4219991617261359</v>
+        <v>-0.4219991617261332</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.004359266524851003</v>
@@ -933,7 +929,7 @@
         <v>1.034245523003758</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.02402091439544526</v>
+        <v>-0.02402091439544511</v>
       </c>
     </row>
     <row r="14">
@@ -944,28 +940,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-5.86590471734953</v>
+        <v>-6.046587001328533</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-9.64555689986458</v>
+        <v>-9.683780984756627</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.254981417718038</v>
+        <v>1.850142667553299</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-6.623408133767632</v>
+        <v>-6.694425909143568</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6095350402148468</v>
+        <v>-0.5890899180228264</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4125218911480212</v>
+        <v>-0.4319749162081029</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06981898013914843</v>
+        <v>0.114327693983572</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3247660679570537</v>
+        <v>-0.324346294079882</v>
       </c>
     </row>
     <row r="15">
@@ -976,28 +972,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>8.14859736177233</v>
+        <v>8.371368366296277</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>14.73063930319556</v>
+        <v>15.34379567851918</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>21.5753813652906</v>
+        <v>21.75133775701395</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5.66840026301093</v>
+        <v>5.209595066847577</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.25263542298674</v>
+        <v>1.191030924749788</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8327507244660312</v>
+        <v>0.860723313351533</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.539935733563642</v>
+        <v>2.664429182331927</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3893949706700528</v>
+        <v>0.3598271359495527</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1017,7 @@
         <v>3.691708965118681</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15.68651623775587</v>
+        <v>15.68651623775586</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.448277249963788</v>
@@ -1044,28 +1040,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.863849049274101</v>
+        <v>-7.530364940139914</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>7.857358410101139</v>
+        <v>7.838631339456721</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-5.659291875211695</v>
+        <v>-5.895543893730851</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9.004780576311013</v>
+        <v>9.320676326788254</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.3452952580906283</v>
+        <v>-0.3852439044387824</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3587381764235912</v>
+        <v>0.3114727782367427</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.2506730125455892</v>
+        <v>-0.2616955710460601</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.4639863023500422</v>
+        <v>0.5121183984947122</v>
       </c>
     </row>
     <row r="18">
@@ -1076,28 +1072,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>16.30998310244475</v>
+        <v>17.18494491482641</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>28.15694437166191</v>
+        <v>27.35050753977283</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>14.07167741276547</v>
+        <v>12.65707441196714</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>22.39768892244833</v>
+        <v>22.13302133166014</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2.072203421692966</v>
+        <v>2.575457871688528</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2.835586803218889</v>
+        <v>2.626815844287302</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9559229528671085</v>
+        <v>0.8970487587762223</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2.388674767974327</v>
+        <v>2.436065683274954</v>
       </c>
     </row>
     <row r="19">
@@ -1144,20 +1140,20 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>9.997538552839432</v>
+        <v>9.79880281018905</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>20.08705302997102</v>
+        <v>20.43513030768274</v>
       </c>
       <c r="E20" s="5" t="inlineStr"/>
       <c r="F20" s="5" t="n">
-        <v>-46.1833511244518</v>
+        <v>-57.39810909397516</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="inlineStr"/>
       <c r="J20" s="6" t="n">
-        <v>-0.6633160818302068</v>
+        <v>-0.6797724844883538</v>
       </c>
     </row>
     <row r="21">
@@ -1168,14 +1164,14 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>16.54747752530189</v>
+        <v>16.60934306751294</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>28.80429579159391</v>
+        <v>29.29855521511333</v>
       </c>
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="n">
-        <v>27.08668920772879</v>
+        <v>27.11183175456135</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
@@ -1203,7 +1199,7 @@
         <v>9.994041067794193</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>10.46604851318644</v>
+        <v>10.46604851318645</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6917715474181994</v>
@@ -1215,7 +1211,7 @@
         <v>0.8430690267080251</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.8375536432579886</v>
+        <v>0.8375536432579889</v>
       </c>
     </row>
     <row r="23">
@@ -1226,28 +1222,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.926275821155359</v>
+        <v>2.260795733624418</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>6.353632310997805</v>
+        <v>6.476860853875328</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5.472272815415854</v>
+        <v>5.795761332237196</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>7.490632515916595</v>
+        <v>7.332677307856114</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.1847103695181209</v>
+        <v>0.2302536050084074</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3675514844774174</v>
+        <v>0.370558342114283</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3995033217212882</v>
+        <v>0.4264515774142073</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.5380200320866074</v>
+        <v>0.504195307525799</v>
       </c>
     </row>
     <row r="24">
@@ -1258,28 +1254,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>8.965985152567916</v>
+        <v>9.200725162384153</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>15.76708149716943</v>
+        <v>15.42258201196121</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>14.05029744119968</v>
+        <v>14.18346619392108</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>13.49499363892734</v>
+        <v>13.32860071497904</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.367040536441394</v>
+        <v>1.470635758284799</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.311692985259512</v>
+        <v>1.254684789614072</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.439457840163954</v>
+        <v>1.379644343647098</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>1.228061707383167</v>
+        <v>1.23225081899487</v>
       </c>
     </row>
     <row r="25">
